--- a/documentacion/Product y Sprint Backlog.xlsx
+++ b/documentacion/Product y Sprint Backlog.xlsx
@@ -43,7 +43,6 @@
     <definedName name="TrendSprintCount" localSheetId="4">'Release Burndown Chart'!$G$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -60,6 +59,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Centor:
 La estimación planeada.</t>
@@ -73,6 +73,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Centor:
 Ingresar el número Sprint que se desea predecir.</t>
@@ -86,6 +87,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Average estimate * 0,6</t>
         </r>
@@ -98,6 +100,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Average estimate * 1,6</t>
         </r>
@@ -110,6 +113,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>As of latest Product Backlog estimate</t>
         </r>
@@ -212,6 +216,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Interactuar con la guía rápida de controles antes de empezar la partida
     </t>
@@ -230,6 +235,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber ejecutado el juego
       </t>
@@ -248,6 +254,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Tener un teclado conectado al pc
     </t>
@@ -266,6 +273,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: el usuario lee la guía rápida de controles y presiona space
     </t>
@@ -284,6 +292,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Se cargará la pantalla de selección de personaje</t>
     </r>
@@ -316,6 +325,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Comenzar a jugar el nivel
     </t>
@@ -334,6 +344,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber configurado el personaje y nivel
       </t>
@@ -352,6 +363,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber iniciado el juego
     </t>
@@ -370,6 +382,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario de clic en comenzar partida
     </t>
@@ -388,6 +401,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Se mostrará el primer nivel del juego</t>
     </r>
@@ -417,6 +431,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Usar controles para el juego
     </t>
@@ -435,6 +450,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber conectado un teclado a la pc
       </t>
@@ -453,6 +469,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber iniciado el juego
     </t>
@@ -471,6 +488,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario de clic en “iniciar partida”
     </t>
@@ -489,6 +507,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Se mostrará automáticamente la interfaz de jugabilidad donde el usuario puede mover con los controles al personaje del juego</t>
     </r>
@@ -518,6 +537,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Completar una partida
     </t>
@@ -536,6 +556,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber comenzado un nivel      
     </t>
@@ -554,6 +575,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario haya completado todos los objetivos del nivel
     </t>
@@ -572,6 +594,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Interfaz de nivel completado con éxito y se invita al usuario a seguir con el siguiente
 </t>
@@ -598,6 +621,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Disparar proyectiles hacia el enemigo
     </t>
@@ -616,6 +640,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber iniciado el juego
       </t>
@@ -634,6 +659,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber empezado una partida
       </t>
@@ -652,6 +678,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber configurado y conectado correctamente el teclado y mouse
     </t>
@@ -670,6 +697,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario apunte y presione space en medio de la partida
     </t>
@@ -688,6 +716,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Saldrán bolas del arma a modo de disparos que bajarán vida al rival</t>
     </r>
@@ -758,6 +787,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Escenarios presentan coberturas y/o obstáculos
     </t>
@@ -776,6 +806,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>:</t>
     </r>
@@ -793,6 +824,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">el usuario ha entrado ha iniciado un juego
       </t>
@@ -811,6 +843,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: el mapa seleccionado cuenta con obstáculos
     </t>
@@ -829,6 +862,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>:</t>
     </r>
@@ -846,6 +880,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">el jugador se sitúa al lado de un obstáculo
     </t>
@@ -864,6 +899,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: se mostrará un drop-down con los datos de la función</t>
     </r>
@@ -901,6 +937,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Los escenarios presentan enemigos
     </t>
@@ -919,6 +956,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario ha iniciado una partida
     </t>
@@ -937,6 +975,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El juego inicie
     </t>
@@ -955,6 +994,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: El mapa contara con enemigos</t>
     </r>
@@ -986,6 +1026,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Los enemigos son destruidos por disparos
     </t>
@@ -1004,6 +1045,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario ha iniciado una partida
     </t>
@@ -1022,6 +1064,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Un proyectil disparado por el jugador impacte a un enemigo
     </t>
@@ -1040,6 +1083,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: El enemigo sera destruido-desaparecera del mapa</t>
     </r>
@@ -1068,6 +1112,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Los enemigos disparan contra el jugador
     </t>
@@ -1086,6 +1131,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario ha iniciado una partida
     </t>
@@ -1104,6 +1150,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El juego inicie y los enemigos tegan una vista sobre el jugador
     </t>
@@ -1122,6 +1169,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Los enemigos dispararan proyectiles al jugador</t>
     </r>
@@ -1150,6 +1198,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Las banderas son obtenidas al contacto
     </t>
@@ -1168,6 +1217,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario ha iniciado una partida
     </t>
@@ -1186,6 +1236,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El jugador pase por encima de una bandera
    </t>
@@ -1204,6 +1255,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: El jugador habrá culminado el escenario</t>
     </r>
@@ -1244,6 +1296,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Completar juego
     </t>
@@ -1262,6 +1315,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario se encuentra en el último escenario de la partida
     </t>
@@ -1280,6 +1334,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario captura la última bandera
    </t>
@@ -1298,6 +1353,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Se completa el juego y sale el mensaje de 'game completed'</t>
     </r>
@@ -1344,6 +1400,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Seleccionar un personaje
     </t>
@@ -1362,6 +1419,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Haber iniciado el juego
     </t>
@@ -1380,6 +1438,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: el usuario haga clic en el personaje que desee
     </t>
@@ -1398,6 +1457,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Se mostrará el nombre del personaje elegido</t>
     </r>
@@ -1429,6 +1489,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Salir del juego
     </t>
@@ -1447,6 +1508,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Desear salir del juego
     </t>
@@ -1465,6 +1527,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El usuario haga presiona la tecla ESC
     </t>
@@ -1483,6 +1546,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: El juego finalizará y la ventana sera cerrada</t>
     </r>
@@ -1514,6 +1578,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Correcciones del Entregable 2
     </t>
@@ -1532,6 +1597,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Estar en fecha de entregable 3
     </t>
@@ -1550,6 +1616,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: El grupo deba presentar el trabajo
     </t>
@@ -1568,6 +1635,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: El trabajo tenga levantadas las observaciones del entregable 2</t>
     </r>
@@ -2027,7 +2095,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2176,6 +2244,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FF8E7CC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF8E7CC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
   </fills>
@@ -2348,7 +2434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2771,6 +2857,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2780,6 +2881,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2789,9 +2893,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2806,209 +2907,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="363">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-    </dxf>
+  <dxfs count="357">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3450,6 +3366,132 @@
       </font>
       <fill>
         <patternFill patternType="none"/>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
       </fill>
       <alignment wrapText="0" shrinkToFit="0"/>
     </dxf>
@@ -6345,11 +6387,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="392438464"/>
-        <c:axId val="392439640"/>
+        <c:axId val="447041640"/>
+        <c:axId val="447036544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392438464"/>
+        <c:axId val="447041640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,7 +6410,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392439640"/>
+        <c:crossAx val="447036544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6376,7 +6418,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392439640"/>
+        <c:axId val="447036544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6433,7 +6475,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392438464"/>
+        <c:crossAx val="447041640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6709,11 +6751,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="392441208"/>
-        <c:axId val="392433760"/>
+        <c:axId val="450814224"/>
+        <c:axId val="450811872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392441208"/>
+        <c:axId val="450814224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6732,7 +6774,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392433760"/>
+        <c:crossAx val="450811872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6740,7 +6782,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392433760"/>
+        <c:axId val="450811872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6774,7 +6816,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392441208"/>
+        <c:crossAx val="450814224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6870,6 +6912,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -7188,9 +7278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7246,24 +7336,24 @@
       <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -8367,43 +8457,43 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" ht="72" customHeight="1">
-      <c r="A22" s="171">
+      <c r="A22" s="156">
         <v>17</v>
       </c>
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="174" t="s">
+      <c r="D22" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="172" t="s">
+      <c r="E22" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="172">
+      <c r="F22" s="157">
         <v>1</v>
       </c>
-      <c r="G22" s="172">
+      <c r="G22" s="157">
         <v>1</v>
       </c>
-      <c r="H22" s="172">
+      <c r="H22" s="157">
         <v>1</v>
       </c>
-      <c r="I22" s="172">
+      <c r="I22" s="157">
         <v>1</v>
       </c>
-      <c r="J22" s="172">
+      <c r="J22" s="157">
         <v>1</v>
       </c>
-      <c r="K22" s="172">
+      <c r="K22" s="157">
         <v>4</v>
       </c>
-      <c r="L22" s="173">
+      <c r="L22" s="158">
         <v>4</v>
       </c>
-      <c r="M22" s="172">
+      <c r="M22" s="157">
         <v>7</v>
       </c>
       <c r="N22" s="20">
@@ -8428,43 +8518,43 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="1:27" ht="72" customHeight="1">
-      <c r="A23" s="171">
+      <c r="A23" s="156">
         <v>18</v>
       </c>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="174" t="s">
+      <c r="C23" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="172" t="s">
+      <c r="E23" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="172">
+      <c r="F23" s="157">
         <v>1</v>
       </c>
-      <c r="G23" s="172">
+      <c r="G23" s="157">
         <v>1</v>
       </c>
-      <c r="H23" s="172">
+      <c r="H23" s="157">
         <v>1</v>
       </c>
-      <c r="I23" s="172">
+      <c r="I23" s="157">
         <v>1</v>
       </c>
-      <c r="J23" s="172">
+      <c r="J23" s="157">
         <v>1</v>
       </c>
-      <c r="K23" s="172">
+      <c r="K23" s="157">
         <v>1</v>
       </c>
-      <c r="L23" s="173">
+      <c r="L23" s="158">
         <v>4</v>
       </c>
-      <c r="M23" s="172">
+      <c r="M23" s="157">
         <v>1</v>
       </c>
       <c r="N23" s="20">
@@ -8493,49 +8583,49 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" ht="72" customHeight="1">
-      <c r="A24" s="171">
+      <c r="A24" s="176">
         <v>19</v>
       </c>
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="177" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="178" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="174" t="s">
+      <c r="D24" s="178" t="s">
         <v>200</v>
       </c>
-      <c r="E24" s="172" t="s">
+      <c r="E24" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="172">
+      <c r="F24" s="177">
         <v>3</v>
       </c>
-      <c r="G24" s="172">
+      <c r="G24" s="177">
         <v>3</v>
       </c>
-      <c r="H24" s="172">
+      <c r="H24" s="177">
         <v>3</v>
       </c>
-      <c r="I24" s="172">
+      <c r="I24" s="177">
         <v>3</v>
       </c>
-      <c r="J24" s="172">
+      <c r="J24" s="177">
         <v>3</v>
       </c>
-      <c r="K24" s="172">
+      <c r="K24" s="177">
         <v>3</v>
       </c>
-      <c r="L24" s="172">
+      <c r="L24" s="177">
         <v>5</v>
       </c>
-      <c r="M24" s="172">
+      <c r="M24" s="177">
         <v>5</v>
       </c>
-      <c r="N24" s="175">
+      <c r="N24" s="179">
         <v>10</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="180">
         <v>10</v>
       </c>
       <c r="P24" s="84"/>
@@ -8720,7 +8810,7 @@
         <v>5</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="158">
+      <c r="L30" s="163">
         <v>1</v>
       </c>
       <c r="M30" s="93">
@@ -8769,7 +8859,7 @@
         <v>5</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="159"/>
+      <c r="L31" s="164"/>
       <c r="M31" s="98">
         <v>13</v>
       </c>
@@ -8816,7 +8906,7 @@
         <v>5</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="159"/>
+      <c r="L32" s="164"/>
       <c r="M32" s="93">
         <v>2</v>
       </c>
@@ -8863,7 +8953,7 @@
         <v>5</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="159"/>
+      <c r="L33" s="164"/>
       <c r="M33" s="100"/>
       <c r="N33" s="3"/>
       <c r="O33" s="101"/>
@@ -8897,7 +8987,7 @@
         <v>5</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="160"/>
+      <c r="L34" s="165"/>
       <c r="M34" s="104" t="s">
         <v>51</v>
       </c>
@@ -9010,7 +9100,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="158">
+      <c r="L37" s="163">
         <v>2</v>
       </c>
       <c r="M37" s="98">
@@ -9050,7 +9140,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="159"/>
+      <c r="L38" s="164"/>
       <c r="M38" s="98">
         <v>14</v>
       </c>
@@ -9085,7 +9175,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="159"/>
+      <c r="L39" s="164"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -9103,7 +9193,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="159"/>
+      <c r="L40" s="164"/>
       <c r="M40" s="100"/>
       <c r="N40" s="3"/>
       <c r="O40" s="101"/>
@@ -9130,7 +9220,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="160"/>
+      <c r="L41" s="165"/>
       <c r="M41" s="104" t="s">
         <v>51</v>
       </c>
@@ -9238,7 +9328,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="158">
+      <c r="L44" s="163">
         <v>3</v>
       </c>
       <c r="M44" s="93">
@@ -9278,7 +9368,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="159"/>
+      <c r="L45" s="164"/>
       <c r="M45" s="93">
         <v>4</v>
       </c>
@@ -9316,7 +9406,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="159"/>
+      <c r="L46" s="164"/>
       <c r="M46" s="93">
         <v>10</v>
       </c>
@@ -9358,7 +9448,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="159"/>
+      <c r="L47" s="164"/>
       <c r="M47" s="98">
         <v>11</v>
       </c>
@@ -9400,7 +9490,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="159"/>
+      <c r="L48" s="164"/>
       <c r="M48" s="115">
         <v>15</v>
       </c>
@@ -9442,7 +9532,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="159"/>
+      <c r="L49" s="164"/>
       <c r="M49" s="115">
         <v>16</v>
       </c>
@@ -9484,7 +9574,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="160"/>
+      <c r="L50" s="165"/>
       <c r="M50" s="104" t="s">
         <v>51</v>
       </c>
@@ -9596,7 +9686,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="158">
+      <c r="L53" s="163">
         <v>4</v>
       </c>
       <c r="M53" s="93">
@@ -9640,7 +9730,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="159"/>
+      <c r="L54" s="164"/>
       <c r="M54" s="93">
         <v>6</v>
       </c>
@@ -9682,7 +9772,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="159"/>
+      <c r="L55" s="164"/>
       <c r="M55" s="100"/>
       <c r="N55" s="3"/>
       <c r="O55" s="101"/>
@@ -9711,7 +9801,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="159"/>
+      <c r="L56" s="164"/>
       <c r="M56" s="100"/>
       <c r="N56" s="3"/>
       <c r="O56" s="101"/>
@@ -9740,7 +9830,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="160"/>
+      <c r="L57" s="165"/>
       <c r="M57" s="104" t="s">
         <v>51</v>
       </c>
@@ -9852,7 +9942,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="158">
+      <c r="L60" s="163">
         <v>5</v>
       </c>
       <c r="M60" s="93">
@@ -9896,7 +9986,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="159"/>
+      <c r="L61" s="164"/>
       <c r="M61" s="93">
         <v>8</v>
       </c>
@@ -9938,7 +10028,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="159"/>
+      <c r="L62" s="164"/>
       <c r="M62" s="93">
         <v>9</v>
       </c>
@@ -9980,11 +10070,11 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="159"/>
+      <c r="L63" s="164"/>
       <c r="M63" s="100">
         <v>19</v>
       </c>
-      <c r="N63" s="176">
+      <c r="N63" s="160">
         <v>10</v>
       </c>
       <c r="O63" s="95">
@@ -10022,7 +10112,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="160"/>
+      <c r="L64" s="165"/>
       <c r="M64" s="104" t="s">
         <v>51</v>
       </c>
@@ -10179,332 +10269,332 @@
     <mergeCell ref="L44:L50"/>
   </mergeCells>
   <conditionalFormatting sqref="M37:N37 P25">
-    <cfRule type="expression" dxfId="362" priority="4">
+    <cfRule type="expression" dxfId="356" priority="4">
       <formula>$E24="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37:N37 P25">
-    <cfRule type="expression" dxfId="361" priority="5">
+    <cfRule type="expression" dxfId="355" priority="5">
       <formula>$E24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37:N37 P25">
-    <cfRule type="expression" dxfId="360" priority="6">
+    <cfRule type="expression" dxfId="354" priority="6">
       <formula>$E24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37:M38">
-    <cfRule type="expression" dxfId="359" priority="7">
+    <cfRule type="expression" dxfId="353" priority="7">
       <formula>$C36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37:M38">
-    <cfRule type="expression" dxfId="358" priority="8">
+    <cfRule type="expression" dxfId="352" priority="8">
       <formula>$C36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37:M38">
-    <cfRule type="expression" dxfId="357" priority="9">
+    <cfRule type="expression" dxfId="351" priority="9">
       <formula>$C36="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:N32">
-    <cfRule type="expression" dxfId="356" priority="10">
+    <cfRule type="expression" dxfId="350" priority="10">
       <formula>$E35="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:N32">
-    <cfRule type="expression" dxfId="355" priority="11">
+    <cfRule type="expression" dxfId="349" priority="11">
       <formula>$E35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:N32">
-    <cfRule type="expression" dxfId="354" priority="12">
+    <cfRule type="expression" dxfId="348" priority="12">
       <formula>$E35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="353" priority="13">
+    <cfRule type="expression" dxfId="347" priority="13">
       <formula>$C36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="352" priority="14">
+    <cfRule type="expression" dxfId="346" priority="14">
       <formula>$C36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="351" priority="15">
+    <cfRule type="expression" dxfId="345" priority="15">
       <formula>$C36="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:Q27">
-    <cfRule type="expression" dxfId="350" priority="16">
+    <cfRule type="expression" dxfId="344" priority="16">
       <formula>$H40="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:Q27">
-    <cfRule type="expression" dxfId="349" priority="17">
+    <cfRule type="expression" dxfId="343" priority="17">
       <formula>$H40="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:Q27">
-    <cfRule type="expression" dxfId="348" priority="18">
+    <cfRule type="expression" dxfId="342" priority="18">
       <formula>$H40="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P27 P23 M26:M28 M5:O23 A26:A28 A24:B24">
-    <cfRule type="expression" dxfId="347" priority="19">
+    <cfRule type="expression" dxfId="341" priority="19">
       <formula>$E5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P27 P23 M26:M28 M5:O23 A26:A28 A24:B24">
-    <cfRule type="expression" dxfId="346" priority="20">
+    <cfRule type="expression" dxfId="340" priority="20">
       <formula>$E5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:P27 P23 M26:M28 M5:O23 A26:A28 A24:B24">
-    <cfRule type="expression" dxfId="345" priority="21">
+    <cfRule type="expression" dxfId="339" priority="21">
       <formula>$E5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31 M45:M46 M54:M55 M61:M62">
-    <cfRule type="expression" dxfId="344" priority="25">
+    <cfRule type="expression" dxfId="338" priority="25">
       <formula>$C29="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31 M45:M46 M54:M55 M61:M62">
-    <cfRule type="expression" dxfId="343" priority="26">
+    <cfRule type="expression" dxfId="337" priority="26">
       <formula>$C29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31 M45:M46 M54:M55 M61:M62">
-    <cfRule type="expression" dxfId="342" priority="27">
+    <cfRule type="expression" dxfId="336" priority="27">
       <formula>$C29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K34 M30 M44 M53 M60">
-    <cfRule type="expression" dxfId="341" priority="28">
+    <cfRule type="expression" dxfId="335" priority="28">
       <formula>$C29="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K34 M30 M44 M53 M60">
-    <cfRule type="expression" dxfId="340" priority="29">
+    <cfRule type="expression" dxfId="334" priority="29">
       <formula>$C29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K34 M30 M44 M53 M60">
-    <cfRule type="expression" dxfId="339" priority="30">
+    <cfRule type="expression" dxfId="333" priority="30">
       <formula>$C29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:K5 L5:L21 C7:D9 F7:K9 N28 B40:B53 C46:F48 K46:K48 C49:K61 L51:L61 B56:B61 B63:L1008 A5:B23 B26:B38">
-    <cfRule type="expression" dxfId="338" priority="31">
+    <cfRule type="expression" dxfId="332" priority="31">
       <formula>$E5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:K5 L5:L21 C7:D9 F7:K9 N28 B40:B53 C46:F48 K46:K48 C49:K61 L51:L61 B56:B61 B63:L1008 A5:B23 B26:B38">
-    <cfRule type="expression" dxfId="337" priority="32">
+    <cfRule type="expression" dxfId="331" priority="32">
       <formula>$E5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:K5 L5:L21 C7:D9 F7:K9 N28 B40:B53 C46:F48 K46:K48 C49:K61 L51:L61 B56:B61 B63:L1008 A5:B23 B26:B38">
-    <cfRule type="expression" dxfId="336" priority="33">
+    <cfRule type="expression" dxfId="330" priority="33">
       <formula>$E5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P67">
-    <cfRule type="expression" dxfId="335" priority="34">
+    <cfRule type="expression" dxfId="329" priority="34">
       <formula>$E52="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P67">
-    <cfRule type="expression" dxfId="334" priority="35">
+    <cfRule type="expression" dxfId="328" priority="35">
       <formula>$E52="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P67">
-    <cfRule type="expression" dxfId="333" priority="36">
+    <cfRule type="expression" dxfId="327" priority="36">
       <formula>$E52="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29 K29:L29 N29:Q29 L36 N36:Q36 L43 N43:Q43 L52 N52:Q52 L59 N59:Q59">
-    <cfRule type="expression" dxfId="332" priority="37">
+    <cfRule type="expression" dxfId="326" priority="37">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29 K29:L29 N29:Q29 L36 N36:Q36 L43 N43:Q43 L52 N52:Q52 L59 N59:Q59">
-    <cfRule type="expression" dxfId="331" priority="38">
+    <cfRule type="expression" dxfId="325" priority="38">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29 K29:L29 N29:Q29 L36 N36:Q36 L43 N43:Q43 L52 N52:Q52 L59 N59:Q59">
-    <cfRule type="expression" dxfId="330" priority="39">
+    <cfRule type="expression" dxfId="324" priority="39">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O5">
-    <cfRule type="expression" dxfId="329" priority="40">
+    <cfRule type="expression" dxfId="323" priority="40">
       <formula>$E5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O5">
-    <cfRule type="expression" dxfId="328" priority="41">
+    <cfRule type="expression" dxfId="322" priority="41">
       <formula>$E5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:O5">
-    <cfRule type="expression" dxfId="327" priority="42">
+    <cfRule type="expression" dxfId="321" priority="42">
       <formula>$E5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:N35 Q23:Q24 A35">
-    <cfRule type="expression" dxfId="326" priority="43">
+    <cfRule type="expression" dxfId="320" priority="43">
       <formula>$C14="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:N35 Q23:Q24 A35">
-    <cfRule type="expression" dxfId="325" priority="44">
+    <cfRule type="expression" dxfId="319" priority="44">
       <formula>$C14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:N35 Q23:Q24 A35">
-    <cfRule type="expression" dxfId="324" priority="45">
+    <cfRule type="expression" dxfId="318" priority="45">
       <formula>$C14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 A39 Q42">
-    <cfRule type="expression" dxfId="323" priority="46">
+    <cfRule type="expression" dxfId="317" priority="46">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 A39 Q42">
-    <cfRule type="expression" dxfId="322" priority="47">
+    <cfRule type="expression" dxfId="316" priority="47">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:N38 A39 Q42">
-    <cfRule type="expression" dxfId="321" priority="48">
+    <cfRule type="expression" dxfId="315" priority="48">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38 A40:A63 M40:N55 M65:N1008 M58:N63">
-    <cfRule type="expression" dxfId="320" priority="49">
+    <cfRule type="expression" dxfId="314" priority="49">
       <formula>$E35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38 A40:A63 M40:N55 M65:N1008 M58:N63">
-    <cfRule type="expression" dxfId="319" priority="50">
+    <cfRule type="expression" dxfId="313" priority="50">
       <formula>$E35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38 A40:A63 M40:N55 M65:N1008 M58:N63">
-    <cfRule type="expression" dxfId="318" priority="51">
+    <cfRule type="expression" dxfId="312" priority="51">
       <formula>$E35="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43 Q51:Q52 Q58:Q59 P65:P66 P68:P1008">
-    <cfRule type="expression" dxfId="317" priority="52">
+    <cfRule type="expression" dxfId="311" priority="52">
       <formula>$E38="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43 Q51:Q52 Q58:Q59 P65:P66 P68:P1008">
-    <cfRule type="expression" dxfId="316" priority="53">
+    <cfRule type="expression" dxfId="310" priority="53">
       <formula>$E38="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43 Q51:Q52 Q58:Q59 P65:P66 P68:P1008">
-    <cfRule type="expression" dxfId="315" priority="54">
+    <cfRule type="expression" dxfId="309" priority="54">
       <formula>$E38="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="expression" dxfId="314" priority="55">
+    <cfRule type="expression" dxfId="308" priority="55">
       <formula>$C32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="expression" dxfId="313" priority="56">
+    <cfRule type="expression" dxfId="307" priority="56">
       <formula>$C32="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="expression" dxfId="312" priority="57">
+    <cfRule type="expression" dxfId="306" priority="57">
       <formula>$C32="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33 M40 M47 M56 M63">
-    <cfRule type="expression" dxfId="311" priority="58">
+    <cfRule type="expression" dxfId="305" priority="58">
       <formula>$C29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33 M40 M47 M56 M63">
-    <cfRule type="expression" dxfId="310" priority="59">
+    <cfRule type="expression" dxfId="304" priority="59">
       <formula>$C29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33 M40 M47 M56 M63">
-    <cfRule type="expression" dxfId="309" priority="60">
+    <cfRule type="expression" dxfId="303" priority="60">
       <formula>$C29="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:N34 M41:N41 M48:N50 M57:N57 M64:N64">
-    <cfRule type="expression" dxfId="308" priority="61">
+    <cfRule type="expression" dxfId="302" priority="61">
       <formula>$C31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:N34 M41:N41 M48:N50 M57:N57 M64:N64">
-    <cfRule type="expression" dxfId="307" priority="62">
+    <cfRule type="expression" dxfId="301" priority="62">
       <formula>$C31="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:N34 M41:N41 M48:N50 M57:N57 M64:N64">
-    <cfRule type="expression" dxfId="306" priority="63">
+    <cfRule type="expression" dxfId="300" priority="63">
       <formula>$C31="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:Q24">
-    <cfRule type="expression" dxfId="305" priority="157">
+    <cfRule type="expression" dxfId="299" priority="157">
       <formula>$H39="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:Q24">
-    <cfRule type="expression" dxfId="304" priority="159">
+    <cfRule type="expression" dxfId="298" priority="159">
       <formula>$H39="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:Q24">
-    <cfRule type="expression" dxfId="303" priority="161">
+    <cfRule type="expression" dxfId="297" priority="161">
       <formula>$H39="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:Q27 P28 A30:A34">
-    <cfRule type="expression" dxfId="302" priority="176">
+    <cfRule type="expression" dxfId="296" priority="176">
       <formula>$C15="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:Q27 P28 A30:A34">
-    <cfRule type="expression" dxfId="301" priority="181">
+    <cfRule type="expression" dxfId="295" priority="181">
       <formula>$C15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:Q27 P28 A30:A34">
-    <cfRule type="expression" dxfId="300" priority="186">
+    <cfRule type="expression" dxfId="294" priority="186">
       <formula>$C15="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:P24">
-    <cfRule type="expression" dxfId="299" priority="189">
+    <cfRule type="expression" dxfId="293" priority="189">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:P24">
-    <cfRule type="expression" dxfId="298" priority="192">
+    <cfRule type="expression" dxfId="292" priority="192">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:P24">
-    <cfRule type="expression" dxfId="297" priority="195">
+    <cfRule type="expression" dxfId="291" priority="195">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13829,1202 +13919,1202 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="296" priority="122">
+    <cfRule type="expression" dxfId="290" priority="122">
       <formula>$E31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="expression" dxfId="295" priority="123">
+    <cfRule type="expression" dxfId="289" priority="123">
       <formula>$E31="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="294" priority="124">
+    <cfRule type="expression" dxfId="288" priority="124">
       <formula>$E4="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="293" priority="125">
+    <cfRule type="expression" dxfId="287" priority="125">
       <formula>$E4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="292" priority="126">
+    <cfRule type="expression" dxfId="286" priority="126">
       <formula>$E4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="291" priority="127">
+    <cfRule type="expression" dxfId="285" priority="127">
       <formula>$E4="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="290" priority="128">
+    <cfRule type="expression" dxfId="284" priority="128">
       <formula>$E12="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="289" priority="129">
+    <cfRule type="expression" dxfId="283" priority="129">
       <formula>$E12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="288" priority="130">
+    <cfRule type="expression" dxfId="282" priority="130">
       <formula>$E29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="287" priority="131">
+    <cfRule type="expression" dxfId="281" priority="131">
       <formula>$E29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="286" priority="132">
+    <cfRule type="expression" dxfId="280" priority="132">
       <formula>$E29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D35">
-    <cfRule type="expression" dxfId="285" priority="133">
+    <cfRule type="expression" dxfId="279" priority="133">
       <formula>$E29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="284" priority="134">
+    <cfRule type="expression" dxfId="278" priority="134">
       <formula>$E22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="283" priority="135">
+    <cfRule type="expression" dxfId="277" priority="135">
       <formula>$E22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="282" priority="136">
+    <cfRule type="expression" dxfId="276" priority="136">
       <formula>$E22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27">
-    <cfRule type="expression" dxfId="281" priority="137">
+    <cfRule type="expression" dxfId="275" priority="137">
       <formula>$E22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B35">
-    <cfRule type="expression" dxfId="280" priority="138">
+    <cfRule type="expression" dxfId="274" priority="138">
       <formula>$E30="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B35">
-    <cfRule type="expression" dxfId="279" priority="139">
+    <cfRule type="expression" dxfId="273" priority="139">
       <formula>$E30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B35">
-    <cfRule type="expression" dxfId="278" priority="140">
+    <cfRule type="expression" dxfId="272" priority="140">
       <formula>$E30="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B35">
-    <cfRule type="expression" dxfId="277" priority="141">
+    <cfRule type="expression" dxfId="271" priority="141">
       <formula>$E30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B35">
-    <cfRule type="expression" dxfId="276" priority="142">
+    <cfRule type="expression" dxfId="270" priority="142">
       <formula>$E30="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="275" priority="143">
+    <cfRule type="expression" dxfId="269" priority="143">
       <formula>$E33="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B33 D25:D29">
-    <cfRule type="expression" dxfId="274" priority="144">
+    <cfRule type="expression" dxfId="268" priority="144">
       <formula>$E22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B33 D25:D29">
-    <cfRule type="expression" dxfId="273" priority="145">
+    <cfRule type="expression" dxfId="267" priority="145">
       <formula>$E22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C38">
-    <cfRule type="expression" dxfId="272" priority="146">
+    <cfRule type="expression" dxfId="266" priority="146">
       <formula>$E29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C38">
-    <cfRule type="expression" dxfId="271" priority="147">
+    <cfRule type="expression" dxfId="265" priority="147">
       <formula>$E29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="270" priority="150">
+    <cfRule type="expression" dxfId="264" priority="150">
       <formula>$E27="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="269" priority="151">
+    <cfRule type="expression" dxfId="263" priority="151">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="268" priority="152">
+    <cfRule type="expression" dxfId="262" priority="152">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="267" priority="155">
+    <cfRule type="expression" dxfId="261" priority="155">
       <formula>$E31="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B38">
-    <cfRule type="expression" dxfId="266" priority="156">
+    <cfRule type="expression" dxfId="260" priority="156">
       <formula>$E31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B38">
-    <cfRule type="expression" dxfId="265" priority="157">
+    <cfRule type="expression" dxfId="259" priority="157">
       <formula>$E31="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="264" priority="158">
+    <cfRule type="expression" dxfId="258" priority="158">
       <formula>$E31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="263" priority="159">
+    <cfRule type="expression" dxfId="257" priority="159">
       <formula>$E31="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="262" priority="160">
+    <cfRule type="expression" dxfId="256" priority="160">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="261" priority="161">
+    <cfRule type="expression" dxfId="255" priority="161">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="260" priority="162">
+    <cfRule type="expression" dxfId="254" priority="162">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="259" priority="163">
+    <cfRule type="expression" dxfId="253" priority="163">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="258" priority="164">
+    <cfRule type="expression" dxfId="252" priority="164">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="257" priority="165">
+    <cfRule type="expression" dxfId="251" priority="165">
       <formula>$E25="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27 F25:F26 B39:B55 G40:K55 F41:F55 C51:D55 E25:E55 L39:U55 F28:F38 G25:U38 C25:C31">
-    <cfRule type="expression" dxfId="256" priority="166">
+    <cfRule type="expression" dxfId="250" priority="166">
       <formula>$E25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27 F25:F26 B39:B55 G40:K55 F41:F55 C51:D55 E25:E55 L39:U55 F28:F38 G25:U38 C25:C31">
-    <cfRule type="expression" dxfId="255" priority="167">
+    <cfRule type="expression" dxfId="249" priority="167">
       <formula>$E25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="254" priority="168">
+    <cfRule type="expression" dxfId="248" priority="168">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="253" priority="169">
+    <cfRule type="expression" dxfId="247" priority="169">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="252" priority="170">
+    <cfRule type="expression" dxfId="246" priority="170">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="251" priority="171">
+    <cfRule type="expression" dxfId="245" priority="171">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="250" priority="172">
+    <cfRule type="expression" dxfId="244" priority="172">
       <formula>$E28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="249" priority="173">
+    <cfRule type="expression" dxfId="243" priority="173">
       <formula>$E28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="248" priority="174">
+    <cfRule type="expression" dxfId="242" priority="174">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="247" priority="175">
+    <cfRule type="expression" dxfId="241" priority="175">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="246" priority="176">
+    <cfRule type="expression" dxfId="240" priority="176">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="245" priority="177">
+    <cfRule type="expression" dxfId="239" priority="177">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="244" priority="178">
+    <cfRule type="expression" dxfId="238" priority="178">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="243" priority="179">
+    <cfRule type="expression" dxfId="237" priority="179">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="242" priority="180">
+    <cfRule type="expression" dxfId="236" priority="180">
       <formula>$E29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="241" priority="181">
+    <cfRule type="expression" dxfId="235" priority="181">
       <formula>$E29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="240" priority="182">
+    <cfRule type="expression" dxfId="234" priority="182">
       <formula>$E25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="239" priority="183">
+    <cfRule type="expression" dxfId="233" priority="183">
       <formula>$E25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="238" priority="184">
+    <cfRule type="expression" dxfId="232" priority="184">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="237" priority="185">
+    <cfRule type="expression" dxfId="231" priority="185">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="236" priority="186">
+    <cfRule type="expression" dxfId="230" priority="186">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="235" priority="187">
+    <cfRule type="expression" dxfId="229" priority="187">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="234" priority="188">
+    <cfRule type="expression" dxfId="228" priority="188">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="233" priority="189">
+    <cfRule type="expression" dxfId="227" priority="189">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="232" priority="190">
+    <cfRule type="expression" dxfId="226" priority="190">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="231" priority="191">
+    <cfRule type="expression" dxfId="225" priority="191">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:T27">
-    <cfRule type="expression" dxfId="230" priority="192">
+    <cfRule type="expression" dxfId="224" priority="192">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:T27 D25:D29">
-    <cfRule type="expression" dxfId="229" priority="193">
+    <cfRule type="expression" dxfId="223" priority="193">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="228" priority="194">
+    <cfRule type="expression" dxfId="222" priority="194">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="227" priority="195">
+    <cfRule type="expression" dxfId="221" priority="195">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="226" priority="196">
+    <cfRule type="expression" dxfId="220" priority="196">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="225" priority="197">
+    <cfRule type="expression" dxfId="219" priority="197">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="224" priority="198">
+    <cfRule type="expression" dxfId="218" priority="198">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="223" priority="199">
+    <cfRule type="expression" dxfId="217" priority="199">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="222" priority="200">
+    <cfRule type="expression" dxfId="216" priority="200">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="221" priority="201">
+    <cfRule type="expression" dxfId="215" priority="201">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="220" priority="202">
+    <cfRule type="expression" dxfId="214" priority="202">
       <formula>$E28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="219" priority="203">
+    <cfRule type="expression" dxfId="213" priority="203">
       <formula>$E28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="218" priority="204">
+    <cfRule type="expression" dxfId="212" priority="204">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="217" priority="205">
+    <cfRule type="expression" dxfId="211" priority="205">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="216" priority="206">
+    <cfRule type="expression" dxfId="210" priority="206">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="215" priority="207">
+    <cfRule type="expression" dxfId="209" priority="207">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="214" priority="208">
+    <cfRule type="expression" dxfId="208" priority="208">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="213" priority="209">
+    <cfRule type="expression" dxfId="207" priority="209">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="212" priority="210">
+    <cfRule type="expression" dxfId="206" priority="210">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="211" priority="211">
+    <cfRule type="expression" dxfId="205" priority="211">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25 G25:H38 I25:U25 B25:D27 D28:D31">
-    <cfRule type="expression" dxfId="210" priority="212">
+    <cfRule type="expression" dxfId="204" priority="212">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:D27 F25 G25:H38 I25:U25 B25:C25 D30:D31">
-    <cfRule type="expression" dxfId="209" priority="213">
+    <cfRule type="expression" dxfId="203" priority="213">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27 B26:C26 F26:K26 M26:U26 D38 D30:D35">
-    <cfRule type="expression" dxfId="208" priority="214">
+    <cfRule type="expression" dxfId="202" priority="214">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27 B26:C26 F26:K26 M26:U26 D38 D30:D35">
-    <cfRule type="expression" dxfId="207" priority="215">
+    <cfRule type="expression" dxfId="201" priority="215">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:K29 M29:O29">
-    <cfRule type="expression" dxfId="206" priority="216">
+    <cfRule type="expression" dxfId="200" priority="216">
       <formula>$M30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:K29 M29:O29">
-    <cfRule type="expression" dxfId="205" priority="217">
+    <cfRule type="expression" dxfId="199" priority="217">
       <formula>$M30="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:T28">
-    <cfRule type="expression" dxfId="204" priority="218">
+    <cfRule type="expression" dxfId="198" priority="218">
       <formula>$M31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:T28">
-    <cfRule type="expression" dxfId="203" priority="219">
+    <cfRule type="expression" dxfId="197" priority="219">
       <formula>$M31="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="202" priority="220">
+    <cfRule type="expression" dxfId="196" priority="220">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25 D25:D29">
-    <cfRule type="expression" dxfId="201" priority="221">
+    <cfRule type="expression" dxfId="195" priority="221">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26 D25:D29">
-    <cfRule type="expression" dxfId="200" priority="222">
+    <cfRule type="expression" dxfId="194" priority="222">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="199" priority="223">
+    <cfRule type="expression" dxfId="193" priority="223">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="198" priority="224">
+    <cfRule type="expression" dxfId="192" priority="224">
       <formula>$M30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="197" priority="225">
+    <cfRule type="expression" dxfId="191" priority="225">
       <formula>$M30="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="expression" dxfId="196" priority="226">
+    <cfRule type="expression" dxfId="190" priority="226">
       <formula>$E28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="expression" dxfId="195" priority="227">
+    <cfRule type="expression" dxfId="189" priority="227">
       <formula>$E28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="194" priority="228">
+    <cfRule type="expression" dxfId="188" priority="228">
       <formula>$E28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="193" priority="229">
+    <cfRule type="expression" dxfId="187" priority="229">
       <formula>$E28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="192" priority="230">
+    <cfRule type="expression" dxfId="186" priority="230">
       <formula>$E28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="191" priority="231">
+    <cfRule type="expression" dxfId="185" priority="231">
       <formula>$E28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:S28">
-    <cfRule type="expression" dxfId="190" priority="232">
+    <cfRule type="expression" dxfId="184" priority="232">
       <formula>$E28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:S28">
-    <cfRule type="expression" dxfId="189" priority="233">
+    <cfRule type="expression" dxfId="183" priority="233">
       <formula>$E28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="188" priority="234">
+    <cfRule type="expression" dxfId="182" priority="234">
       <formula>$E28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="187" priority="235">
+    <cfRule type="expression" dxfId="181" priority="235">
       <formula>$E28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27 F25:F30 I25:Q30 R25:T31 U25:U30">
-    <cfRule type="expression" dxfId="186" priority="236">
+    <cfRule type="expression" dxfId="180" priority="236">
       <formula>$E25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27 F25:F30 I25:Q30 R25:T31 U25:U30">
-    <cfRule type="expression" dxfId="185" priority="237">
+    <cfRule type="expression" dxfId="179" priority="237">
       <formula>$E25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="184" priority="238">
+    <cfRule type="expression" dxfId="178" priority="238">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="183" priority="239">
+    <cfRule type="expression" dxfId="177" priority="239">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M28">
-    <cfRule type="expression" dxfId="182" priority="240">
+    <cfRule type="expression" dxfId="176" priority="240">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M28">
-    <cfRule type="expression" dxfId="181" priority="241">
+    <cfRule type="expression" dxfId="175" priority="241">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="180" priority="242">
+    <cfRule type="expression" dxfId="174" priority="242">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="179" priority="243">
+    <cfRule type="expression" dxfId="173" priority="243">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="178" priority="244">
+    <cfRule type="expression" dxfId="172" priority="244">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="177" priority="245">
+    <cfRule type="expression" dxfId="171" priority="245">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="176" priority="246">
+    <cfRule type="expression" dxfId="170" priority="246">
       <formula>$E25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="175" priority="247">
+    <cfRule type="expression" dxfId="169" priority="247">
       <formula>$E25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N28">
-    <cfRule type="expression" dxfId="174" priority="248">
+    <cfRule type="expression" dxfId="168" priority="248">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N28">
-    <cfRule type="expression" dxfId="173" priority="249">
+    <cfRule type="expression" dxfId="167" priority="249">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:K26 M26:U26">
-    <cfRule type="expression" dxfId="172" priority="250">
+    <cfRule type="expression" dxfId="166" priority="250">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:K26 M26:U26">
-    <cfRule type="expression" dxfId="171" priority="251">
+    <cfRule type="expression" dxfId="165" priority="251">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27 B26:C26 D38 D30:D35">
-    <cfRule type="expression" dxfId="170" priority="252">
+    <cfRule type="expression" dxfId="164" priority="252">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27 B26:C26 D38 D30:D35">
-    <cfRule type="expression" dxfId="169" priority="253">
+    <cfRule type="expression" dxfId="163" priority="253">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:T27">
-    <cfRule type="expression" dxfId="168" priority="254">
+    <cfRule type="expression" dxfId="162" priority="254">
       <formula>$M30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:T27">
-    <cfRule type="expression" dxfId="167" priority="255">
+    <cfRule type="expression" dxfId="161" priority="255">
       <formula>$M30="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:D27 F25 G25:H38 I25:U25 B25:C25 D30:D31">
-    <cfRule type="expression" dxfId="166" priority="256">
+    <cfRule type="expression" dxfId="160" priority="256">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:D27 F25 G25:H38 I25:U25 B25:C25 D30:D31">
-    <cfRule type="expression" dxfId="165" priority="257">
+    <cfRule type="expression" dxfId="159" priority="257">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="164" priority="258">
+    <cfRule type="expression" dxfId="158" priority="258">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="163" priority="259">
+    <cfRule type="expression" dxfId="157" priority="259">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O28">
-    <cfRule type="expression" dxfId="162" priority="260">
+    <cfRule type="expression" dxfId="156" priority="260">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O28">
-    <cfRule type="expression" dxfId="161" priority="261">
+    <cfRule type="expression" dxfId="155" priority="261">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P28">
-    <cfRule type="expression" dxfId="160" priority="262">
+    <cfRule type="expression" dxfId="154" priority="262">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P28">
-    <cfRule type="expression" dxfId="159" priority="263">
+    <cfRule type="expression" dxfId="153" priority="263">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q28">
-    <cfRule type="expression" dxfId="158" priority="264">
+    <cfRule type="expression" dxfId="152" priority="264">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q28">
-    <cfRule type="expression" dxfId="157" priority="265">
+    <cfRule type="expression" dxfId="151" priority="265">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:S28">
-    <cfRule type="expression" dxfId="156" priority="266">
+    <cfRule type="expression" dxfId="150" priority="266">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:S28">
-    <cfRule type="expression" dxfId="155" priority="267">
+    <cfRule type="expression" dxfId="149" priority="267">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:T28">
-    <cfRule type="expression" dxfId="154" priority="268">
+    <cfRule type="expression" dxfId="148" priority="268">
       <formula>$E27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:T28">
-    <cfRule type="expression" dxfId="153" priority="269">
+    <cfRule type="expression" dxfId="147" priority="269">
       <formula>$E27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:T28">
-    <cfRule type="expression" dxfId="152" priority="270">
+    <cfRule type="expression" dxfId="146" priority="270">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:T28">
-    <cfRule type="expression" dxfId="151" priority="271">
+    <cfRule type="expression" dxfId="145" priority="271">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27 D30:D31">
-    <cfRule type="expression" dxfId="150" priority="272">
+    <cfRule type="expression" dxfId="144" priority="272">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27 D30:D31">
-    <cfRule type="expression" dxfId="149" priority="273">
+    <cfRule type="expression" dxfId="143" priority="273">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27 D30:D31">
-    <cfRule type="expression" dxfId="148" priority="274">
+    <cfRule type="expression" dxfId="142" priority="274">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D27 D30:D31">
-    <cfRule type="expression" dxfId="147" priority="275">
+    <cfRule type="expression" dxfId="141" priority="275">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:U39">
-    <cfRule type="expression" dxfId="146" priority="276">
+    <cfRule type="expression" dxfId="140" priority="276">
       <formula>$E31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:U39">
-    <cfRule type="expression" dxfId="145" priority="277">
+    <cfRule type="expression" dxfId="139" priority="277">
       <formula>$E31="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D27">
-    <cfRule type="expression" dxfId="144" priority="299">
+    <cfRule type="expression" dxfId="138" priority="299">
       <formula>$E30="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D27">
-    <cfRule type="expression" dxfId="143" priority="301">
+    <cfRule type="expression" dxfId="137" priority="301">
       <formula>$E30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35 D30:D31">
-    <cfRule type="expression" dxfId="142" priority="75">
+    <cfRule type="expression" dxfId="136" priority="75">
       <formula>$E14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35 D30:D31">
-    <cfRule type="expression" dxfId="141" priority="76">
+    <cfRule type="expression" dxfId="135" priority="76">
       <formula>$E14="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D31">
-    <cfRule type="expression" dxfId="140" priority="77">
+    <cfRule type="expression" dxfId="134" priority="77">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D31">
-    <cfRule type="expression" dxfId="139" priority="78">
+    <cfRule type="expression" dxfId="133" priority="78">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D31">
-    <cfRule type="expression" dxfId="138" priority="79">
+    <cfRule type="expression" dxfId="132" priority="79">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D32">
-    <cfRule type="expression" dxfId="137" priority="67">
+    <cfRule type="expression" dxfId="131" priority="67">
       <formula>$E6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D32">
-    <cfRule type="expression" dxfId="136" priority="68">
+    <cfRule type="expression" dxfId="130" priority="68">
       <formula>$E6="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="135" priority="69">
+    <cfRule type="expression" dxfId="129" priority="69">
       <formula>$E16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="134" priority="70">
+    <cfRule type="expression" dxfId="128" priority="70">
       <formula>$E16="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="133" priority="71">
+    <cfRule type="expression" dxfId="127" priority="71">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="132" priority="72">
+    <cfRule type="expression" dxfId="126" priority="72">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="131" priority="73">
+    <cfRule type="expression" dxfId="125" priority="73">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="130" priority="74">
+    <cfRule type="expression" dxfId="124" priority="74">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="129" priority="44">
+    <cfRule type="expression" dxfId="123" priority="44">
       <formula>$E9="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="128" priority="45">
+    <cfRule type="expression" dxfId="122" priority="45">
       <formula>$E9="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="127" priority="46">
+    <cfRule type="expression" dxfId="121" priority="46">
       <formula>$E9="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="126" priority="47">
+    <cfRule type="expression" dxfId="120" priority="47">
       <formula>$E9="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="125" priority="48">
+    <cfRule type="expression" dxfId="119" priority="48">
       <formula>$E17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="124" priority="49">
+    <cfRule type="expression" dxfId="118" priority="49">
       <formula>$E17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="123" priority="50">
+    <cfRule type="expression" dxfId="117" priority="50">
       <formula>$E28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="122" priority="51">
+    <cfRule type="expression" dxfId="116" priority="51">
       <formula>$E28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="121" priority="52">
+    <cfRule type="expression" dxfId="115" priority="52">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="120" priority="53">
+    <cfRule type="expression" dxfId="114" priority="53">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="119" priority="54">
+    <cfRule type="expression" dxfId="113" priority="54">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="118" priority="55">
+    <cfRule type="expression" dxfId="112" priority="55">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="117" priority="56">
+    <cfRule type="expression" dxfId="111" priority="56">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="116" priority="57">
+    <cfRule type="expression" dxfId="110" priority="57">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="115" priority="58">
+    <cfRule type="expression" dxfId="109" priority="58">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="114" priority="59">
+    <cfRule type="expression" dxfId="108" priority="59">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="113" priority="60">
+    <cfRule type="expression" dxfId="107" priority="60">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="112" priority="61">
+    <cfRule type="expression" dxfId="106" priority="61">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="111" priority="62">
+    <cfRule type="expression" dxfId="105" priority="62">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="110" priority="63">
+    <cfRule type="expression" dxfId="104" priority="63">
       <formula>$E43="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="109" priority="64">
+    <cfRule type="expression" dxfId="103" priority="64">
       <formula>$E43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="108" priority="65">
+    <cfRule type="expression" dxfId="102" priority="65">
       <formula>$E36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="107" priority="66">
+    <cfRule type="expression" dxfId="101" priority="66">
       <formula>$E36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35">
-    <cfRule type="expression" dxfId="106" priority="40">
+    <cfRule type="expression" dxfId="100" priority="40">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35">
-    <cfRule type="expression" dxfId="105" priority="41">
+    <cfRule type="expression" dxfId="99" priority="41">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35">
-    <cfRule type="expression" dxfId="104" priority="42">
+    <cfRule type="expression" dxfId="98" priority="42">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35">
-    <cfRule type="expression" dxfId="103" priority="43">
+    <cfRule type="expression" dxfId="97" priority="43">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="102" priority="17">
+    <cfRule type="expression" dxfId="96" priority="17">
       <formula>$E14="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="101" priority="18">
+    <cfRule type="expression" dxfId="95" priority="18">
       <formula>$E14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="100" priority="19">
+    <cfRule type="expression" dxfId="94" priority="19">
       <formula>$E14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="99" priority="20">
+    <cfRule type="expression" dxfId="93" priority="20">
       <formula>$E14="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="98" priority="21">
+    <cfRule type="expression" dxfId="92" priority="21">
       <formula>$E22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="97" priority="22">
+    <cfRule type="expression" dxfId="91" priority="22">
       <formula>$E22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="96" priority="23">
+    <cfRule type="expression" dxfId="90" priority="23">
       <formula>$E33="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="95" priority="24">
+    <cfRule type="expression" dxfId="89" priority="24">
       <formula>$E33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="94" priority="25">
+    <cfRule type="expression" dxfId="88" priority="25">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="93" priority="26">
+    <cfRule type="expression" dxfId="87" priority="26">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="92" priority="27">
+    <cfRule type="expression" dxfId="86" priority="27">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="91" priority="28">
+    <cfRule type="expression" dxfId="85" priority="28">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="90" priority="29">
+    <cfRule type="expression" dxfId="84" priority="29">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="89" priority="30">
+    <cfRule type="expression" dxfId="83" priority="30">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="88" priority="31">
+    <cfRule type="expression" dxfId="82" priority="31">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="87" priority="32">
+    <cfRule type="expression" dxfId="81" priority="32">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="86" priority="33">
+    <cfRule type="expression" dxfId="80" priority="33">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="85" priority="34">
+    <cfRule type="expression" dxfId="79" priority="34">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="84" priority="35">
+    <cfRule type="expression" dxfId="78" priority="35">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="83" priority="36">
+    <cfRule type="expression" dxfId="77" priority="36">
       <formula>$E48="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="82" priority="37">
+    <cfRule type="expression" dxfId="76" priority="37">
       <formula>$E48="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="expression" dxfId="81" priority="9">
+    <cfRule type="expression" dxfId="75" priority="9">
       <formula>$E31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="expression" dxfId="80" priority="10">
+    <cfRule type="expression" dxfId="74" priority="10">
       <formula>$E31="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="expression" dxfId="79" priority="11">
+    <cfRule type="expression" dxfId="73" priority="11">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="expression" dxfId="78" priority="12">
+    <cfRule type="expression" dxfId="72" priority="12">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="expression" dxfId="77" priority="13">
+    <cfRule type="expression" dxfId="71" priority="13">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="expression" dxfId="76" priority="14">
+    <cfRule type="expression" dxfId="70" priority="14">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="expression" dxfId="75" priority="15">
+    <cfRule type="expression" dxfId="69" priority="15">
       <formula>$E46="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D37">
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="68" priority="16">
       <formula>$E46="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38 D30:D35">
-    <cfRule type="expression" dxfId="73" priority="308">
+    <cfRule type="expression" dxfId="67" priority="308">
       <formula>$E24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38 D30:D35">
-    <cfRule type="expression" dxfId="72" priority="310">
+    <cfRule type="expression" dxfId="66" priority="310">
       <formula>$E24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B33">
-    <cfRule type="expression" dxfId="71" priority="321">
+    <cfRule type="expression" dxfId="65" priority="321">
       <formula>$E28="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D26">
-    <cfRule type="expression" dxfId="13" priority="344">
+    <cfRule type="expression" dxfId="64" priority="344">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D29">
-    <cfRule type="expression" dxfId="12" priority="345">
+    <cfRule type="expression" dxfId="63" priority="345">
       <formula>$E39="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D26">
-    <cfRule type="expression" dxfId="11" priority="346">
+    <cfRule type="expression" dxfId="62" priority="346">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D29">
-    <cfRule type="expression" dxfId="10" priority="347">
+    <cfRule type="expression" dxfId="61" priority="347">
       <formula>$E39="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="9" priority="348">
+    <cfRule type="expression" dxfId="60" priority="348">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="8" priority="349">
+    <cfRule type="expression" dxfId="59" priority="349">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>$E26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>$E26="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="56" priority="3">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>$E26="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15063,12 +15153,12 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -15104,7 +15194,7 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="161">
+      <c r="B5" s="167">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -15119,7 +15209,7 @@
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="159"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="29" t="s">
         <v>38</v>
       </c>
@@ -15132,7 +15222,7 @@
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="160"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="29" t="s">
         <v>39</v>
       </c>
@@ -15145,7 +15235,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="161">
+      <c r="B8" s="167">
         <v>2</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -15160,7 +15250,7 @@
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="159"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="29" t="s">
         <v>41</v>
       </c>
@@ -15173,7 +15263,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="160"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="29" t="s">
         <v>42</v>
       </c>
@@ -15206,10 +15296,10 @@
       <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="163"/>
+      <c r="E13" s="169"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -15229,10 +15319,10 @@
       <c r="C14" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="164">
+      <c r="D14" s="170">
         <v>15</v>
       </c>
-      <c r="E14" s="163"/>
+      <c r="E14" s="169"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1">
       <c r="A15" s="1"/>
@@ -15242,10 +15332,10 @@
       <c r="C15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="164">
+      <c r="D15" s="170">
         <v>20</v>
       </c>
-      <c r="E15" s="163"/>
+      <c r="E15" s="169"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1">
       <c r="A16" s="1"/>
@@ -15291,12 +15381,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15332,16 +15422,16 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -15619,52 +15709,52 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>$F7="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>$F7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 G5:G6 A5:E6">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>OR($F5="Planned",$F5="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 G5:G6 A5:E6">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="66" priority="5">
+    <cfRule type="expression" dxfId="46" priority="5">
       <formula>OR($F6="Planned",$F6="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="65" priority="6">
+    <cfRule type="expression" dxfId="45" priority="6">
       <formula>$F6="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="64" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>$F8="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="63" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>$F8="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="62" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>OR($F5="Planned",$F5="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="61" priority="10">
+    <cfRule type="expression" dxfId="41" priority="10">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15696,12 +15786,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -15870,11 +15960,11 @@
       <c r="Z7" s="99"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A8" s="167">
+      <c r="A8" s="172">
         <f>D$4</f>
         <v>2</v>
       </c>
-      <c r="B8" s="157"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="106"/>
       <c r="D8" s="109">
         <f ca="1">IF(D28="","",AVERAGE(OFFSET(D27,'Release Burndown Chart'!TrendOffset,0,'Release Burndown Chart'!SprintsInTrend,1)))</f>
@@ -16121,11 +16211,11 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="167">
+      <c r="A18" s="172">
         <f>D$4</f>
         <v>2</v>
       </c>
-      <c r="B18" s="157"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="1"/>
       <c r="D18" s="113" t="e">
         <f ca="1">IF(D8="","",IF(LastRealized="",ROUNDUP(LastPlanned/D8,0)+'Release Burndown Chart'!SprintCount-1,ROUNDUP((LastPlanned-LastRealized)/D8+'Release Burndown Chart'!SprintCount,0)))</f>
@@ -16335,11 +16425,11 @@
       <c r="L26" s="118"/>
       <c r="M26" s="118"/>
       <c r="N26" s="118"/>
-      <c r="O26" s="170" t="s">
+      <c r="O26" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="169"/>
-      <c r="Q26" s="169"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="174"/>
     </row>
     <row r="27" spans="1:26" ht="26.25" customHeight="1">
       <c r="A27" s="119" t="s">
@@ -16360,10 +16450,10 @@
       <c r="F27" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="168" t="s">
+      <c r="G27" s="173" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="169"/>
+      <c r="H27" s="174"/>
       <c r="I27" s="118" t="s">
         <v>161</v>
       </c>
@@ -17031,17 +17121,17 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>$D27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>$D27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>$D27="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19656,192 +19746,192 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E27:S1000 J21:J22 E21:G26 H21:I25 A20:C1000 E21:F29 T27:X29 K21:X25 H26:X26">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>$D27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:S1000 J21:J22 E21:G26 H21:I25 A20:C1000 E21:F29 T27:X29 K21:X25 H26:X26">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>$D27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>$D20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>$D20="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="53" priority="5">
+    <cfRule type="expression" dxfId="33" priority="5">
       <formula>$D20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="52" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>$D20="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:X20">
-    <cfRule type="expression" dxfId="51" priority="7">
+    <cfRule type="expression" dxfId="31" priority="7">
       <formula>$D20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:X20">
-    <cfRule type="expression" dxfId="50" priority="8">
+    <cfRule type="expression" dxfId="30" priority="8">
       <formula>$D20="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="49" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>$D21="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="48" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>$D21="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19 E19:X19">
-    <cfRule type="expression" dxfId="47" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>$J23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19 E19:X19">
-    <cfRule type="expression" dxfId="46" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>$J23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:J25">
-    <cfRule type="expression" dxfId="45" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>$J29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:J25">
-    <cfRule type="expression" dxfId="44" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>$J29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:M20">
-    <cfRule type="expression" dxfId="43" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>$J27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:M20">
-    <cfRule type="expression" dxfId="42" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>$J27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:M26">
-    <cfRule type="expression" dxfId="41" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>$J28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:M26">
-    <cfRule type="expression" dxfId="40" priority="18">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$J28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:M21">
-    <cfRule type="expression" dxfId="39" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$J29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:M21">
-    <cfRule type="expression" dxfId="38" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$J29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:M22">
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$J30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:M22">
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>$J30="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:M25">
-    <cfRule type="expression" dxfId="35" priority="23">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>$J31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:M25">
-    <cfRule type="expression" dxfId="34" priority="24">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>$J31="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="33" priority="25">
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>$D20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>$D20="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="11" priority="27">
       <formula>$D26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="10" priority="28">
       <formula>$D26="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="9" priority="29">
       <formula>$D19="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="8" priority="30">
       <formula>$D19="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="7" priority="31">
       <formula>$D20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="expression" dxfId="6" priority="32">
       <formula>$D20="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="25" priority="33">
+    <cfRule type="expression" dxfId="5" priority="33">
       <formula>$D20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="24" priority="34">
+    <cfRule type="expression" dxfId="4" priority="34">
       <formula>$D20="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>$D20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="22" priority="36">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>$D20="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="21" priority="37">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>$D20="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="20" priority="38">
+    <cfRule type="expression" dxfId="0" priority="38">
       <formula>$D20="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documentacion/Product y Sprint Backlog.xlsx
+++ b/documentacion/Product y Sprint Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben Morales\git\MyGame\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog - Sprint backlo" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="TrendOffset" localSheetId="4">'Release Burndown Chart'!$G$5</definedName>
     <definedName name="TrendSprintCount" localSheetId="4">'Release Burndown Chart'!$G$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2016,7 +2016,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _m_k_-;\-* #,##0\ _m_k_-;_-* &quot;-&quot;??\ _m_k_-;_-@"/>
     <numFmt numFmtId="165" formatCode="&quot;Sprint &quot;#&quot; Backlog&quot;"/>
@@ -2872,6 +2872,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2881,6 +2894,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2888,10 +2905,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2907,19 +2920,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6137,7 +6137,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
@@ -6159,7 +6159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6237,6 +6236,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC15-4F2E-BF50-0C1F93095E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6307,6 +6311,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC15-4F2E-BF50-0C1F93095E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6377,6 +6386,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC15-4F2E-BF50-0C1F93095E6E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6407,7 +6421,7 @@
             <a:pPr lvl="0">
               <a:defRPr b="1" i="0"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-001"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="447036544"/>
@@ -6453,7 +6467,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6472,7 +6485,7 @@
             <a:pPr lvl="0">
               <a:defRPr sz="1200" b="1" i="0"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-001"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="447041640"/>
@@ -6487,7 +6500,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6508,7 +6520,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="1"/>
@@ -6607,6 +6619,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2A3-4D21-921C-DCC94A32C1C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6674,6 +6691,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2A3-4D21-921C-DCC94A32C1C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6741,6 +6763,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2A3-4D21-921C-DCC94A32C1C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6771,7 +6798,7 @@
             <a:pPr lvl="0">
               <a:defRPr b="1" i="0"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-001"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="450811872"/>
@@ -6813,7 +6840,7 @@
             <a:pPr lvl="0">
               <a:defRPr b="1" i="0"/>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-001"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="450814224"/>
@@ -6864,7 +6891,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Chart 0" title="Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 1" descr="Chart 0" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6899,7 +6932,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="Rectangle 6" hidden="1"/>
+        <xdr:cNvPr id="1030" name="Rectangle 6" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6942,7 +6981,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 6"/>
+        <xdr:cNvPr id="2" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Autoforma 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6995,7 +7094,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" descr="Chart 0"/>
+        <xdr:cNvPr id="2" name="Chart 2" descr="Chart 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7278,16 +7383,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
@@ -7296,7 +7401,7 @@
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.7109375" customWidth="1"/>
     <col min="15" max="15" width="32.28515625" customWidth="1"/>
     <col min="16" max="16" width="30.5703125" customWidth="1"/>
@@ -7336,24 +7441,24 @@
       <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -7544,17 +7649,17 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="14.25">
+    <row r="7" spans="1:27" ht="63.75">
       <c r="A7" s="11">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -7612,10 +7717,10 @@
       <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="55" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="21" t="s">
@@ -7673,10 +7778,10 @@
       <c r="B9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="55" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="21" t="s">
@@ -8583,49 +8688,49 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" ht="72" customHeight="1">
-      <c r="A24" s="176">
+      <c r="A24" s="161">
         <v>19</v>
       </c>
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="163" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="178" t="s">
+      <c r="D24" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="177">
+      <c r="F24" s="162">
         <v>3</v>
       </c>
-      <c r="G24" s="177">
+      <c r="G24" s="162">
         <v>3</v>
       </c>
-      <c r="H24" s="177">
+      <c r="H24" s="162">
         <v>3</v>
       </c>
-      <c r="I24" s="177">
+      <c r="I24" s="162">
         <v>3</v>
       </c>
-      <c r="J24" s="177">
+      <c r="J24" s="162">
         <v>3</v>
       </c>
-      <c r="K24" s="177">
+      <c r="K24" s="162">
         <v>3</v>
       </c>
-      <c r="L24" s="177">
+      <c r="L24" s="162">
         <v>5</v>
       </c>
-      <c r="M24" s="177">
+      <c r="M24" s="162">
         <v>5</v>
       </c>
-      <c r="N24" s="179">
+      <c r="N24" s="164">
         <v>10</v>
       </c>
-      <c r="O24" s="180">
+      <c r="O24" s="165">
         <v>10</v>
       </c>
       <c r="P24" s="84"/>
@@ -8810,7 +8915,7 @@
         <v>5</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="163">
+      <c r="L30" s="168">
         <v>1</v>
       </c>
       <c r="M30" s="93">
@@ -8859,7 +8964,7 @@
         <v>5</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="164"/>
+      <c r="L31" s="169"/>
       <c r="M31" s="98">
         <v>13</v>
       </c>
@@ -8906,7 +9011,7 @@
         <v>5</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="164"/>
+      <c r="L32" s="169"/>
       <c r="M32" s="93">
         <v>2</v>
       </c>
@@ -8953,7 +9058,7 @@
         <v>5</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="164"/>
+      <c r="L33" s="169"/>
       <c r="M33" s="100"/>
       <c r="N33" s="3"/>
       <c r="O33" s="101"/>
@@ -8987,7 +9092,7 @@
         <v>5</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="165"/>
+      <c r="L34" s="170"/>
       <c r="M34" s="104" t="s">
         <v>51</v>
       </c>
@@ -9100,7 +9205,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="163">
+      <c r="L37" s="168">
         <v>2</v>
       </c>
       <c r="M37" s="98">
@@ -9140,7 +9245,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="164"/>
+      <c r="L38" s="169"/>
       <c r="M38" s="98">
         <v>14</v>
       </c>
@@ -9175,7 +9280,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="164"/>
+      <c r="L39" s="169"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -9193,7 +9298,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="164"/>
+      <c r="L40" s="169"/>
       <c r="M40" s="100"/>
       <c r="N40" s="3"/>
       <c r="O40" s="101"/>
@@ -9220,7 +9325,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="165"/>
+      <c r="L41" s="170"/>
       <c r="M41" s="104" t="s">
         <v>51</v>
       </c>
@@ -9328,7 +9433,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="163">
+      <c r="L44" s="168">
         <v>3</v>
       </c>
       <c r="M44" s="93">
@@ -9368,7 +9473,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="164"/>
+      <c r="L45" s="169"/>
       <c r="M45" s="93">
         <v>4</v>
       </c>
@@ -9406,7 +9511,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="164"/>
+      <c r="L46" s="169"/>
       <c r="M46" s="93">
         <v>10</v>
       </c>
@@ -9448,7 +9553,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="164"/>
+      <c r="L47" s="169"/>
       <c r="M47" s="98">
         <v>11</v>
       </c>
@@ -9490,7 +9595,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="164"/>
+      <c r="L48" s="169"/>
       <c r="M48" s="115">
         <v>15</v>
       </c>
@@ -9532,7 +9637,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="164"/>
+      <c r="L49" s="169"/>
       <c r="M49" s="115">
         <v>16</v>
       </c>
@@ -9574,7 +9679,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="165"/>
+      <c r="L50" s="170"/>
       <c r="M50" s="104" t="s">
         <v>51</v>
       </c>
@@ -9686,7 +9791,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="163">
+      <c r="L53" s="168">
         <v>4</v>
       </c>
       <c r="M53" s="93">
@@ -9730,7 +9835,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="164"/>
+      <c r="L54" s="169"/>
       <c r="M54" s="93">
         <v>6</v>
       </c>
@@ -9772,7 +9877,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="164"/>
+      <c r="L55" s="169"/>
       <c r="M55" s="100"/>
       <c r="N55" s="3"/>
       <c r="O55" s="101"/>
@@ -9801,7 +9906,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="164"/>
+      <c r="L56" s="169"/>
       <c r="M56" s="100"/>
       <c r="N56" s="3"/>
       <c r="O56" s="101"/>
@@ -9830,7 +9935,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="165"/>
+      <c r="L57" s="170"/>
       <c r="M57" s="104" t="s">
         <v>51</v>
       </c>
@@ -9942,7 +10047,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="163">
+      <c r="L60" s="168">
         <v>5</v>
       </c>
       <c r="M60" s="93">
@@ -9986,7 +10091,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="164"/>
+      <c r="L61" s="169"/>
       <c r="M61" s="93">
         <v>8</v>
       </c>
@@ -10028,7 +10133,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="164"/>
+      <c r="L62" s="169"/>
       <c r="M62" s="93">
         <v>9</v>
       </c>
@@ -10070,7 +10175,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="164"/>
+      <c r="L63" s="169"/>
       <c r="M63" s="100">
         <v>19</v>
       </c>
@@ -10112,7 +10217,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="165"/>
+      <c r="L64" s="170"/>
       <c r="M64" s="104" t="s">
         <v>51</v>
       </c>
@@ -10611,8 +10716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE77"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12416,7 +12521,7 @@
         <v>178</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>177</v>
@@ -12562,7 +12667,7 @@
         <v>178</v>
       </c>
       <c r="D38" s="139" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>177</v>
@@ -15153,12 +15258,12 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -15194,7 +15299,7 @@
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="167">
+      <c r="B5" s="174">
         <v>1</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -15209,7 +15314,7 @@
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="164"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="29" t="s">
         <v>38</v>
       </c>
@@ -15222,7 +15327,7 @@
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="165"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="29" t="s">
         <v>39</v>
       </c>
@@ -15235,7 +15340,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="167">
+      <c r="B8" s="174">
         <v>2</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -15250,7 +15355,7 @@
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="164"/>
+      <c r="B9" s="169"/>
       <c r="C9" s="29" t="s">
         <v>41</v>
       </c>
@@ -15263,7 +15368,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="165"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="29" t="s">
         <v>42</v>
       </c>
@@ -15296,10 +15401,10 @@
       <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="169"/>
+      <c r="E13" s="172"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -15319,10 +15424,10 @@
       <c r="C14" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="170">
+      <c r="D14" s="171">
         <v>15</v>
       </c>
-      <c r="E14" s="169"/>
+      <c r="E14" s="172"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1">
       <c r="A15" s="1"/>
@@ -15332,10 +15437,10 @@
       <c r="C15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="170">
+      <c r="D15" s="171">
         <v>20</v>
       </c>
-      <c r="E15" s="169"/>
+      <c r="E15" s="172"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1">
       <c r="A16" s="1"/>
@@ -15422,16 +15527,16 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -15786,12 +15891,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -15960,11 +16065,11 @@
       <c r="Z7" s="99"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A8" s="172">
+      <c r="A8" s="177">
         <f>D$4</f>
         <v>2</v>
       </c>
-      <c r="B8" s="162"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="106"/>
       <c r="D8" s="109">
         <f ca="1">IF(D28="","",AVERAGE(OFFSET(D27,'Release Burndown Chart'!TrendOffset,0,'Release Burndown Chart'!SprintsInTrend,1)))</f>
@@ -16211,11 +16316,11 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="172">
+      <c r="A18" s="177">
         <f>D$4</f>
         <v>2</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="1"/>
       <c r="D18" s="113" t="e">
         <f ca="1">IF(D8="","",IF(LastRealized="",ROUNDUP(LastPlanned/D8,0)+'Release Burndown Chart'!SprintCount-1,ROUNDUP((LastPlanned-LastRealized)/D8+'Release Burndown Chart'!SprintCount,0)))</f>
@@ -16425,11 +16530,11 @@
       <c r="L26" s="118"/>
       <c r="M26" s="118"/>
       <c r="N26" s="118"/>
-      <c r="O26" s="175" t="s">
+      <c r="O26" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
+      <c r="P26" s="179"/>
+      <c r="Q26" s="179"/>
     </row>
     <row r="27" spans="1:26" ht="26.25" customHeight="1">
       <c r="A27" s="119" t="s">
@@ -16450,10 +16555,10 @@
       <c r="F27" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="173" t="s">
+      <c r="G27" s="178" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="174"/>
+      <c r="H27" s="179"/>
       <c r="I27" s="118" t="s">
         <v>161</v>
       </c>
